--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/17.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/17.xlsx
@@ -479,13 +479,13 @@
         <v>-10.11615446212056</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.5417319644093</v>
+        <v>-21.51197746861726</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.09054454187920033</v>
+        <v>-0.08849115899509605</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.906113272895087</v>
+        <v>-8.921078522914714</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.88626267879798</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.6913355745369</v>
+        <v>-21.66286199854399</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2214134776927797</v>
+        <v>-0.2186071877511705</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.423734521364057</v>
+        <v>-8.436797947712453</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.522695483240112</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.88441712273197</v>
+        <v>-21.86200102624717</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3722980076195088</v>
+        <v>-0.3685676953800527</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.319711122256708</v>
+        <v>-8.335678618684051</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.041688085768726</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.005644937004</v>
+        <v>-21.98461731846939</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3955599022922901</v>
+        <v>-0.3921718205335181</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.809034798979973</v>
+        <v>-7.829304621450203</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.447891655662177</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.95077561293661</v>
+        <v>-21.93615259339767</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5178290750269661</v>
+        <v>-0.514387214192658</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.115822515320103</v>
+        <v>-7.134566967647855</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.761883725466583</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.22242839048987</v>
+        <v>-22.20739958338097</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6594342699202906</v>
+        <v>-0.6511571812946036</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.53460760096752</v>
+        <v>-6.553400943363941</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.008326718106433</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.60996040880275</v>
+        <v>-22.59586051299857</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8275036589842257</v>
+        <v>-0.8193096834752763</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.116147725214535</v>
+        <v>-6.133083245001529</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.207283079420106</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.88792978322807</v>
+        <v>-22.87351210197754</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9481985715077551</v>
+        <v>-0.9386845641447387</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.797262252320008</v>
+        <v>-5.816109373791965</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.375741242155529</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.3427638700709</v>
+        <v>-23.33093247345296</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.048261875052903</v>
+        <v>-1.037598951076162</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.493747817015061</v>
+        <v>-5.509808204572876</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.538896721306132</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.76561407399037</v>
+        <v>-23.75565516700247</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.305008070668942</v>
+        <v>-1.293240231140278</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.102910830060146</v>
+        <v>-5.121073490570735</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.71135841542928</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.23398093184083</v>
+        <v>-24.22481404396536</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.223889668733089</v>
+        <v>-1.213524974175229</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.935340119696637</v>
+        <v>-4.950608488142012</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.899250099641882</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.82710057791435</v>
+        <v>-24.81870615312385</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.150794127065844</v>
+        <v>-1.138273380479675</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.848061569108471</v>
+        <v>-4.859785407575333</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.121393761330255</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.42950444802814</v>
+        <v>-25.4228749547166</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.081438675651788</v>
+        <v>-1.067143219572929</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.713701882391915</v>
+        <v>-4.725112824419294</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.387054183446277</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.04815937696755</v>
+        <v>-26.0405716383101</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.036606482682178</v>
+        <v>-1.022115466328642</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.724897708117149</v>
+        <v>-4.732891234344556</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.6975152902440065</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.82107713957874</v>
+        <v>-26.81249204352044</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9417157484022259</v>
+        <v>-0.928950551472711</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.666708748387128</v>
+        <v>-4.671759092480651</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.06388530286060473</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.5836986537282</v>
+        <v>-27.57795895966644</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8198865862855723</v>
+        <v>-0.8085538683680634</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.691148893714836</v>
+        <v>-4.694463640370604</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5093430598492258</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.45895310807765</v>
+        <v>-28.45083491217514</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6553715052138843</v>
+        <v>-0.6460286130912098</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.940551801016768</v>
+        <v>-4.941749607699162</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.02449349541338</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.11773944988414</v>
+        <v>-29.11154263368033</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4016711608759338</v>
+        <v>-0.3904753351506985</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.21502553553224</v>
+        <v>-5.210522760207811</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.477525791007217</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.54054809724525</v>
+        <v>-29.53509196558177</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1975160121272994</v>
+        <v>-0.1865793037660106</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.53940625214518</v>
+        <v>-5.536736854395844</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.865656152242684</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.13245526961577</v>
+        <v>-30.12699424894543</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2139623618197303</v>
+        <v>0.2255835311423871</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.857372591748727</v>
+        <v>-5.853050709678374</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.188729843512422</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.68955271309386</v>
+        <v>-30.68203342053255</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2641871293635475</v>
+        <v>0.2731584569643365</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.126326637511452</v>
+        <v>-6.122053645509768</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.443124377320136</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.01927222520547</v>
+        <v>-31.01313407708406</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5488788882308719</v>
+        <v>0.5576742115844519</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.417902118047393</v>
+        <v>-6.41358023597704</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.624863800485104</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.22775414503133</v>
+        <v>-31.21968972820435</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7452702940748454</v>
+        <v>0.7543100677717711</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.678349291861686</v>
+        <v>-6.672316257387913</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.732525263599021</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.53099235144829</v>
+        <v>-31.52165434833249</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9792434957047941</v>
+        <v>0.9859169900781329</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.72805582467761</v>
+        <v>-6.72174900581929</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.764494378317603</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.44142819014985</v>
+        <v>-31.43185795920786</v>
       </c>
       <c r="F26" t="n">
-        <v>1.002749840720921</v>
+        <v>1.010787368010129</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.913994533840119</v>
+        <v>-6.903849844591272</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.719676922382081</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.54302664185121</v>
+        <v>-31.53252505510107</v>
       </c>
       <c r="F27" t="n">
-        <v>1.252890988059758</v>
+        <v>1.261373414973855</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.174847495224367</v>
+        <v>-7.164458355632172</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.59909364760552</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.35863774786551</v>
+        <v>-31.34803838097804</v>
       </c>
       <c r="F28" t="n">
-        <v>1.411451258767543</v>
+        <v>1.417665186495392</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.351829543806688</v>
+        <v>-7.338340773860869</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.402569410548189</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.16504529845284</v>
+        <v>-31.15400592094735</v>
       </c>
       <c r="F29" t="n">
-        <v>1.433627793915869</v>
+        <v>1.440496848563885</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.650924316903944</v>
+        <v>-7.636946646271434</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.132058102551058</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.05744803532578</v>
+        <v>-31.04369281450571</v>
       </c>
       <c r="F30" t="n">
-        <v>1.559241047347515</v>
+        <v>1.564516285756916</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.68584160394745</v>
+        <v>-7.669962109643711</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.793252466441371</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.77552834335199</v>
+        <v>-30.76343049585982</v>
       </c>
       <c r="F31" t="n">
-        <v>1.470715800008286</v>
+        <v>1.479291118052855</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.634599922975315</v>
+        <v>-7.62243607389043</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.389316727363803</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.37169882064825</v>
+        <v>-30.35849850210758</v>
       </c>
       <c r="F32" t="n">
-        <v>1.441758212335549</v>
+        <v>1.448363260612751</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.628131766890387</v>
+        <v>-7.618471089321362</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9285525634162144</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.87100584939376</v>
+        <v>-29.85890800190158</v>
       </c>
       <c r="F33" t="n">
-        <v>1.389152498447544</v>
+        <v>1.397116690633748</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.882707243457515</v>
+        <v>-7.871491861704811</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.4238743601523848</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.29058050965018</v>
+        <v>-29.27716996381423</v>
       </c>
       <c r="F34" t="n">
-        <v>1.387793354538542</v>
+        <v>1.395190421928184</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.889126509473773</v>
+        <v>-7.877133775629232</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.1178617690170806</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.81936824980319</v>
+        <v>-28.8065468292947</v>
       </c>
       <c r="F35" t="n">
-        <v>1.402440819111819</v>
+        <v>1.410468568387293</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.871203410299664</v>
+        <v>-7.861220058277423</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.6848248286206823</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.19101353123981</v>
+        <v>-28.17920169064934</v>
       </c>
       <c r="F36" t="n">
-        <v>1.32803502360424</v>
+        <v>1.334635182874575</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.700650405747336</v>
+        <v>-7.694925378706178</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-1.263350037634291</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.54265788558389</v>
+        <v>-27.53160139655436</v>
       </c>
       <c r="F37" t="n">
-        <v>1.418232311291954</v>
+        <v>1.425463152448121</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.617439508872443</v>
+        <v>-7.611323361281933</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.84808414804704</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.96439593137892</v>
+        <v>-26.95529748959959</v>
       </c>
       <c r="F38" t="n">
-        <v>1.256396405983335</v>
+        <v>1.265211285364383</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.556326923036006</v>
+        <v>-7.551530807299563</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.432982430406308</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.1980661055209</v>
+        <v>-26.19181795474498</v>
       </c>
       <c r="F39" t="n">
-        <v>1.337832593365538</v>
+        <v>1.344256748388664</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.47118975745555</v>
+        <v>-7.468090127101926</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.009445510943853</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.55543548690613</v>
+        <v>-25.54941711945296</v>
       </c>
       <c r="F40" t="n">
-        <v>1.333901831844538</v>
+        <v>1.341685130776667</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.145924130599698</v>
+        <v>-7.143161841719891</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.573468581668132</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.98541150927192</v>
+        <v>-24.98137318959985</v>
       </c>
       <c r="F41" t="n">
-        <v>1.386135981210658</v>
+        <v>1.392799697570263</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.137172808307921</v>
+        <v>-7.137461259713068</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.122700291750579</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.30353194352956</v>
+        <v>-24.29898516714333</v>
       </c>
       <c r="F42" t="n">
-        <v>1.38881026796686</v>
+        <v>1.396730459091262</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.873200660542581</v>
+        <v>-6.871113054610409</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.650703727885612</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.61993633637691</v>
+        <v>-23.61547756211428</v>
       </c>
       <c r="F43" t="n">
-        <v>1.340541103169809</v>
+        <v>1.34838307018434</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.820751394874318</v>
+        <v>-6.81948025308892</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.152150446588324</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.93163261561142</v>
+        <v>-22.92898766289642</v>
       </c>
       <c r="F44" t="n">
-        <v>1.450768651991273</v>
+        <v>1.457955492085638</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.73848407632474</v>
+        <v>-6.737545387006293</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.627457457797126</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.09805205579556</v>
+        <v>-22.09581289065051</v>
       </c>
       <c r="F45" t="n">
-        <v>1.497644449831254</v>
+        <v>1.506165988800287</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.590557395552494</v>
+        <v>-6.590528061511293</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.072908422812862</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.57683014470689</v>
+        <v>-21.57569100610689</v>
       </c>
       <c r="F46" t="n">
-        <v>1.491132292684523</v>
+        <v>1.499336046207206</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.476614201512175</v>
+        <v>-6.473387456980011</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.482338670307338</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.89133760288987</v>
+        <v>-20.8931807584787</v>
       </c>
       <c r="F47" t="n">
-        <v>1.570544431223822</v>
+        <v>1.577305927720766</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.456315045000744</v>
+        <v>-6.454545224514921</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.85852380772248</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.25348354398408</v>
+        <v>-20.25726274629221</v>
       </c>
       <c r="F48" t="n">
-        <v>1.618021576908433</v>
+        <v>1.624044833368473</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.434363404168296</v>
+        <v>-6.433649609165726</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.201450245521372</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.48109868312139</v>
+        <v>-19.4864472566338</v>
       </c>
       <c r="F49" t="n">
-        <v>1.759616993788024</v>
+        <v>1.766632718642047</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.198771941265398</v>
+        <v>-6.197730582802746</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.504534150631337</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.08641893676908</v>
+        <v>-19.09345421765057</v>
       </c>
       <c r="F50" t="n">
-        <v>1.755026216339991</v>
+        <v>1.763234858869541</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.210808676171743</v>
+        <v>-6.208251725580347</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.770586322887884</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.5071987372182</v>
+        <v>-18.51376467344047</v>
       </c>
       <c r="F51" t="n">
-        <v>1.727858005180545</v>
+        <v>1.732326557456905</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.265208655579905</v>
+        <v>-6.261757016731863</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.001574147289668</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.03583980716519</v>
+        <v>-18.0386314300862</v>
       </c>
       <c r="F52" t="n">
-        <v>1.730600738032884</v>
+        <v>1.738168920662868</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.275363122842488</v>
+        <v>-6.272214602420195</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.189030187480592</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.63401233277346</v>
+        <v>-17.63835377087128</v>
       </c>
       <c r="F53" t="n">
-        <v>1.815899240839949</v>
+        <v>1.824005214225294</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.183650243026031</v>
+        <v>-6.182281321103294</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.33275727509192</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.00573583831995</v>
+        <v>-17.01120174799716</v>
       </c>
       <c r="F54" t="n">
-        <v>1.872078818747669</v>
+        <v>1.880595468709835</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.185752515978804</v>
+        <v>-6.183562240902426</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.435658844889291</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.79508319944518</v>
+        <v>-16.79881351168464</v>
       </c>
       <c r="F55" t="n">
-        <v>1.858472712637044</v>
+        <v>1.864921312694505</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.42164709730745</v>
+        <v>-6.417804337910055</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.490243272509652</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.23828398538597</v>
+        <v>-16.24102671823831</v>
       </c>
       <c r="F56" t="n">
-        <v>1.888315210552693</v>
+        <v>1.894534027287409</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.319246848479916</v>
+        <v>-6.315531203261061</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.493555137978607</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.14138386928372</v>
+        <v>-16.14378437165538</v>
       </c>
       <c r="F57" t="n">
-        <v>1.929025970733494</v>
+        <v>1.935469681784088</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.502408601742018</v>
+        <v>-6.494869753153235</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.449967569773355</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.92298704353176</v>
+        <v>-15.92441952254377</v>
       </c>
       <c r="F58" t="n">
-        <v>1.812472047026242</v>
+        <v>1.819443770818463</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.655297624484183</v>
+        <v>-6.648242787575224</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.356499863132694</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.66194341087971</v>
+        <v>-15.66310699451403</v>
       </c>
       <c r="F59" t="n">
-        <v>1.869727206444683</v>
+        <v>1.876312698694417</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.425924978316001</v>
+        <v>-6.422272890186415</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.211244156589666</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.43682420068574</v>
+        <v>-15.43658952835613</v>
       </c>
       <c r="F60" t="n">
-        <v>1.936740823569486</v>
+        <v>1.942891194208065</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.456187930822204</v>
+        <v>-6.45373853838188</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.021281207327581</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.29098512584567</v>
+        <v>-15.29008065957529</v>
       </c>
       <c r="F61" t="n">
-        <v>1.881226150595667</v>
+        <v>1.887635638598192</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.290308816834647</v>
+        <v>-6.290543489164259</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.788416847634962</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.26042883292745</v>
+        <v>-15.25741231569056</v>
       </c>
       <c r="F62" t="n">
-        <v>1.87814607626951</v>
+        <v>1.886613836163007</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.372683693535297</v>
+        <v>-6.371921008464058</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.510561053424688</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.20655686626091</v>
+        <v>-15.20156030124293</v>
       </c>
       <c r="F63" t="n">
-        <v>1.864784420502232</v>
+        <v>1.871501915937373</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.411189511619119</v>
+        <v>-6.413414009743565</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.192638947836297</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.25448868958415</v>
+        <v>-15.24737029558592</v>
       </c>
       <c r="F64" t="n">
-        <v>1.708086861410741</v>
+        <v>1.716055942603812</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.403313321556519</v>
+        <v>-6.406388506875809</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.837523937802876</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.2988124258396</v>
+        <v>-15.29025177481563</v>
       </c>
       <c r="F65" t="n">
-        <v>1.703368969784168</v>
+        <v>1.711382052039041</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.506549590558295</v>
+        <v>-6.510191900674147</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.442020189948378</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.30555925531594</v>
+        <v>-15.29658303870828</v>
       </c>
       <c r="F66" t="n">
-        <v>1.797154788512197</v>
+        <v>1.802909149594556</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.453841207526085</v>
+        <v>-6.456491049247953</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.00629509312017</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.1840087665907</v>
+        <v>-15.17437742306288</v>
       </c>
       <c r="F67" t="n">
-        <v>1.619854954483527</v>
+        <v>1.62498352268692</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.214387429198324</v>
+        <v>-6.219882672916737</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.532544776378641</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.31387545599656</v>
+        <v>-15.30195605725502</v>
       </c>
       <c r="F68" t="n">
-        <v>1.581046017973956</v>
+        <v>1.587431060942147</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.336519709740727</v>
+        <v>-6.342528299180166</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.016999277882884</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.22223591128311</v>
+        <v>-15.21009161822569</v>
       </c>
       <c r="F69" t="n">
-        <v>1.548607457411975</v>
+        <v>1.556517870522643</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.196464330024214</v>
+        <v>-6.198566602976988</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.453807280444188</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.27234823166899</v>
+        <v>-15.25990082018582</v>
       </c>
       <c r="F70" t="n">
-        <v>1.474983903003103</v>
+        <v>1.480591593879454</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.139458509955986</v>
+        <v>-6.144591967166247</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.844587478672641</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.29680793302416</v>
+        <v>-15.28423829636932</v>
       </c>
       <c r="F71" t="n">
-        <v>1.366550619701796</v>
+        <v>1.372608099209904</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.143306158360248</v>
+        <v>-6.147593817382533</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.188578651962578</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.41581124917174</v>
+        <v>-15.40247892744566</v>
       </c>
       <c r="F72" t="n">
-        <v>1.288800743497248</v>
+        <v>1.293919533686908</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.007812222050568</v>
+        <v>-6.01081896127372</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.477489820239114</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.52474810018034</v>
+        <v>-15.51208557239503</v>
       </c>
       <c r="F73" t="n">
-        <v>1.220129753044561</v>
+        <v>1.224417412066845</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.15666292512066</v>
+        <v>-6.158906979272574</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.715457863786945</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.64180559159488</v>
+        <v>-15.62962218648253</v>
       </c>
       <c r="F74" t="n">
-        <v>1.086371414172634</v>
+        <v>1.092644009982886</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.068616800454389</v>
+        <v>-6.070127503576265</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.9072340045149903</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.89400012181782</v>
+        <v>-15.88115181177157</v>
       </c>
       <c r="F75" t="n">
-        <v>1.028133564373944</v>
+        <v>1.035061287104362</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.103563421539096</v>
+        <v>-6.104360329658403</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.04783819514427947</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.91538952686058</v>
+        <v>-15.90296656041175</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8152417603541321</v>
+        <v>0.8238170783987009</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.221114702647199</v>
+        <v>-6.222610738748475</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.85550119516515</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.97448784186784</v>
+        <v>-15.96398625511771</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6687426695870257</v>
+        <v>0.6762375171140063</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.15254149233185</v>
+        <v>-6.154130419563598</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>1.791049447047087</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.1179948604324</v>
+        <v>-16.10826573676724</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6850817305362554</v>
+        <v>0.6921170114177461</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.124982160623051</v>
+        <v>-6.126874206280547</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>2.753089486637842</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.2420191866323</v>
+        <v>-16.23262251543409</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3993730582406128</v>
+        <v>0.4077039259418359</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.144034620383419</v>
+        <v>-6.143868394149943</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>3.728062519256292</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.72235433329296</v>
+        <v>-16.71315811137629</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3833957837995348</v>
+        <v>0.3921079940363772</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.107161730593146</v>
+        <v>-6.104453220788875</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>4.694637427329165</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.19028118052539</v>
+        <v>-17.18434592618895</v>
       </c>
       <c r="F81" t="n">
-        <v>0.211737863695284</v>
+        <v>0.2206994132823391</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.209371308152869</v>
+        <v>-6.204829420773506</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>5.634520307007187</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.6236916392774</v>
+        <v>-17.61747282254268</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.09389840058990398</v>
+        <v>-0.08637421902172188</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.258642719357638</v>
+        <v>-6.254095942971408</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>6.529176361760991</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.10506814440071</v>
+        <v>-18.10114716089344</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.1039404206945473</v>
+        <v>-0.09626467991349082</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.302052211328976</v>
+        <v>-6.295197823701562</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>7.35441983446114</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.88202911569083</v>
+        <v>-18.87891481831661</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1997405102517457</v>
+        <v>-0.1930279038234715</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.328169286012036</v>
+        <v>-6.319515743857597</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>8.088230549146742</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.56928169997994</v>
+        <v>-19.56757054757652</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3565211824599743</v>
+        <v>-0.3488112186308494</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.426404100988958</v>
+        <v>-6.41586340218389</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>8.715856897620101</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.22658911720918</v>
+        <v>-20.22552331371219</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.51633303892569</v>
+        <v>-0.5072052631051599</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.681820486737196</v>
+        <v>-6.669832641899521</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>9.220079091905532</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.97815658683255</v>
+        <v>-20.97773124323513</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6183177221695358</v>
+        <v>-0.6089846080605953</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.012776917586137</v>
+        <v>-6.999165922468645</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>9.584797821439292</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.82734774557447</v>
+        <v>-21.82619882896075</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7311413336373321</v>
+        <v>-0.7226295726820332</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.294290821989966</v>
+        <v>-7.277927316006402</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>9.804087974144652</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.81968902537967</v>
+        <v>-22.82024148315563</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9452113883120701</v>
+        <v>-0.936308506807418</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.370999339731862</v>
+        <v>-7.353726478471051</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>9.874671705722678</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.88656810387785</v>
+        <v>-23.89018596895936</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.195944105481803</v>
+        <v>-1.188243919666412</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.73526946337196</v>
+        <v>-7.718490391804709</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>9.793569327184233</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.10020050150021</v>
+        <v>-25.10632153809759</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.125112173993939</v>
+        <v>-1.11927958880171</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.105802404808577</v>
+        <v>-8.088324205259356</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>9.566881273612935</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.37002225504403</v>
+        <v>-26.37845579188946</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.339524459149361</v>
+        <v>-1.335187910058408</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.396698313390017</v>
+        <v>-8.377156952942958</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>9.208948977250488</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.63415320459476</v>
+        <v>-27.6446254573037</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.623028189348025</v>
+        <v>-1.615724013088854</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.707952046565291</v>
+        <v>-8.687877784369737</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>8.731019062778515</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.13773304346639</v>
+        <v>-29.15147359726585</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.865821159365889</v>
+        <v>-1.86104948866378</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.043753483219342</v>
+        <v>-9.023801446195463</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>8.151176648101005</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.76930952661728</v>
+        <v>-30.78434322273304</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.125710986397353</v>
+        <v>-2.123017143613683</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.320999284628357</v>
+        <v>-9.301624150414773</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>7.489021177999344</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.61199821528842</v>
+        <v>-32.62705880094195</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.142915401562027</v>
+        <v>-2.141898488133709</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.674909602717463</v>
+        <v>-9.65634115463692</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>6.772691347808506</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.33097302969572</v>
+        <v>-34.34815299982606</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.496429710094913</v>
+        <v>-2.495872363312085</v>
       </c>
       <c r="G97" t="n">
-        <v>-10.03896461005542</v>
+        <v>-10.0208361725929</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>5.996190353824534</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.31947879267604</v>
+        <v>-36.33891748397889</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.892248595047215</v>
+        <v>-2.891466353948508</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.47548447717478</v>
+        <v>-10.45926275239036</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>5.211662124892637</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.34993956808479</v>
+        <v>-38.37306701506873</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.166780997645089</v>
+        <v>-3.165412075722353</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.81328551763741</v>
+        <v>-10.79755269353968</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>4.37932739685462</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.55461032518231</v>
+        <v>-40.57755687891218</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.527658150519549</v>
+        <v>-3.52608877931527</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.99585081206174</v>
+        <v>-10.98061177765757</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>3.577664200599455</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.46809427778982</v>
+        <v>-42.48948857183944</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.959191230634664</v>
+        <v>-3.958174317206346</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.24948759931043</v>
+        <v>-11.23663928926417</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>2.683811259208304</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.73348894467787</v>
+        <v>-44.75572170340516</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.197681874609643</v>
+        <v>-4.19534004032039</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.39030566409818</v>
+        <v>-11.37751113312746</v>
       </c>
     </row>
   </sheetData>
